--- a/Simulação de reservas financeiras.xlsx
+++ b/Simulação de reservas financeiras.xlsx
@@ -510,11 +510,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78541972"/>
-        <c:axId val="79911605"/>
+        <c:axId val="89958341"/>
+        <c:axId val="49130838"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78541972"/>
+        <c:axId val="89958341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +547,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79911605"/>
+        <c:crossAx val="49130838"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -555,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79911605"/>
+        <c:axId val="49130838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78541972"/>
+        <c:crossAx val="89958341"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
